--- a/medicine/Sexualité et sexologie/Les_oiseaux_le_font,_les_abeilles_aussi/Les_oiseaux_le_font,_les_abeilles_aussi.xlsx
+++ b/medicine/Sexualité et sexologie/Les_oiseaux_le_font,_les_abeilles_aussi/Les_oiseaux_le_font,_les_abeilles_aussi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Les oiseaux le font, les abeilles aussi (titre original : Birds Do It, Bees Do It) est un film documentaire américain réalisé par Nicolas Noxon (en) et Irwin Rosten (en), sorti en 1974 au cinéma. 
 Le film traite de la sexualité animale. Le film est narré par Lee Bergere dans la version originale.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre :  Les oiseaux le font, les abeilles aussi
 Titre original : Birds Do It, Bees Do It
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lee Bergere : le narrateur</t>
         </is>
@@ -619,7 +637,9 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film a été projeté hors compétition lors du Festival de Cannes le 14 mai 1974.</t>
         </is>
@@ -651,8 +671,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nominations
-Le film fut nommé dans la catégorie Oscar de la meilleure musique de film, musique composée par Gerald Fried, lors de la 48e cérémonie des Oscars.
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le film fut nommé dans la catégorie Oscar de la meilleure musique de film, musique composée par Gerald Fried, lors de la 48e cérémonie des Oscars.
 Le film fut nommé dans la catégorie Golden Globe du meilleur documentaire lors de la 32e cérémonie des Golden Globes.</t>
         </is>
       </c>
